--- a/data/pca/factorExposure/factorExposure_2017-01-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-01-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.004868646924074274</v>
+        <v>0.0105939340051417</v>
       </c>
       <c r="C2">
-        <v>-0.01229485068694244</v>
+        <v>-0.03975546516722519</v>
       </c>
       <c r="D2">
-        <v>-0.03972088029954594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03162101148446932</v>
+      </c>
+      <c r="E2">
+        <v>0.05220199853492511</v>
+      </c>
+      <c r="F2">
+        <v>0.005321111566667099</v>
+      </c>
+      <c r="G2">
+        <v>-0.1122847950126638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04746756633750373</v>
+        <v>0.03810018289978177</v>
       </c>
       <c r="C3">
-        <v>0.03694415123528254</v>
+        <v>-0.09990498158652276</v>
       </c>
       <c r="D3">
-        <v>-0.1122541031745717</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01775626991138744</v>
+      </c>
+      <c r="E3">
+        <v>0.09705541570630187</v>
+      </c>
+      <c r="F3">
+        <v>0.01955819230277847</v>
+      </c>
+      <c r="G3">
+        <v>-0.12690312489311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04542813966943435</v>
+        <v>0.05408269598500544</v>
       </c>
       <c r="C4">
-        <v>0.007442862270433196</v>
+        <v>-0.06672208112579329</v>
       </c>
       <c r="D4">
-        <v>-0.06636459058431564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02577543929441092</v>
+      </c>
+      <c r="E4">
+        <v>0.04359988958738545</v>
+      </c>
+      <c r="F4">
+        <v>0.002793461181590969</v>
+      </c>
+      <c r="G4">
+        <v>-0.09918336215182601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01567716893055021</v>
+        <v>0.03362149276333357</v>
       </c>
       <c r="C6">
-        <v>0.005562504870773835</v>
+        <v>-0.05078628722243959</v>
       </c>
       <c r="D6">
-        <v>-0.05573577846440659</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01851787493657254</v>
+      </c>
+      <c r="E6">
+        <v>0.04808235809305626</v>
+      </c>
+      <c r="F6">
+        <v>0.003592865728141206</v>
+      </c>
+      <c r="G6">
+        <v>-0.08584286743135258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.006148280821231229</v>
+        <v>0.01977556613971005</v>
       </c>
       <c r="C7">
-        <v>0.0006095563854400608</v>
+        <v>-0.03753996136131792</v>
       </c>
       <c r="D7">
-        <v>-0.03663921477756268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01501576030096779</v>
+      </c>
+      <c r="E7">
+        <v>0.01994298019295048</v>
+      </c>
+      <c r="F7">
+        <v>-0.003715154652180006</v>
+      </c>
+      <c r="G7">
+        <v>-0.1259857554005289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001054274499971827</v>
+        <v>0.003653127563927364</v>
       </c>
       <c r="C8">
-        <v>-0.00112094081152903</v>
+        <v>-0.02225637774474661</v>
       </c>
       <c r="D8">
-        <v>0.0008069542294240126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004042800785463375</v>
+      </c>
+      <c r="E8">
+        <v>0.03314514815002593</v>
+      </c>
+      <c r="F8">
+        <v>0.001638503059966608</v>
+      </c>
+      <c r="G8">
+        <v>-0.06748228009880415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0169629573286095</v>
+        <v>0.03247431501792249</v>
       </c>
       <c r="C9">
-        <v>0.00188686052596965</v>
+        <v>-0.04722301047668311</v>
       </c>
       <c r="D9">
-        <v>-0.04025243902204513</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01683788164781778</v>
+      </c>
+      <c r="E9">
+        <v>0.0297668095352238</v>
+      </c>
+      <c r="F9">
+        <v>-0.0009889179831631886</v>
+      </c>
+      <c r="G9">
+        <v>-0.1026039466813181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1233442218931543</v>
+        <v>0.1006324205306946</v>
       </c>
       <c r="C10">
-        <v>-0.02397356835457947</v>
+        <v>0.1857773030228513</v>
       </c>
       <c r="D10">
-        <v>0.1742013351277225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01528938332894725</v>
+      </c>
+      <c r="E10">
+        <v>0.0211594736425011</v>
+      </c>
+      <c r="F10">
+        <v>0.02162382535654734</v>
+      </c>
+      <c r="G10">
+        <v>-0.05351804021979659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.02120904691797315</v>
+        <v>0.03502105255815333</v>
       </c>
       <c r="C11">
-        <v>0.01964069966786485</v>
+        <v>-0.05260413979251476</v>
       </c>
       <c r="D11">
-        <v>-0.04860750830834586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002690237437230643</v>
+      </c>
+      <c r="E11">
+        <v>0.02239700792977138</v>
+      </c>
+      <c r="F11">
+        <v>-0.01493063838252164</v>
+      </c>
+      <c r="G11">
+        <v>-0.08406660539323288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.02191114244718632</v>
+        <v>0.03738536641918823</v>
       </c>
       <c r="C12">
-        <v>0.01289852459582406</v>
+        <v>-0.04745697949459936</v>
       </c>
       <c r="D12">
-        <v>-0.04381702906482112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006626781180883866</v>
+      </c>
+      <c r="E12">
+        <v>0.01156256922302484</v>
+      </c>
+      <c r="F12">
+        <v>-0.00232366334466155</v>
+      </c>
+      <c r="G12">
+        <v>-0.0797769862302776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.003904513251527558</v>
+        <v>0.01185442638494202</v>
       </c>
       <c r="C13">
-        <v>-0.01087953545944444</v>
+        <v>-0.03898906768129854</v>
       </c>
       <c r="D13">
-        <v>-0.0355562621978745</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02842653845366388</v>
+      </c>
+      <c r="E13">
+        <v>0.05343059728171927</v>
+      </c>
+      <c r="F13">
+        <v>0.01424942505532775</v>
+      </c>
+      <c r="G13">
+        <v>-0.1412534310062908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.000342115843032564</v>
+        <v>0.00895078729578183</v>
       </c>
       <c r="C14">
-        <v>-0.001023660607587102</v>
+        <v>-0.0273546195530114</v>
       </c>
       <c r="D14">
-        <v>-0.02185769538354985</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01112254270584717</v>
+      </c>
+      <c r="E14">
+        <v>0.0154692477484081</v>
+      </c>
+      <c r="F14">
+        <v>0.006377702568190442</v>
+      </c>
+      <c r="G14">
+        <v>-0.1152254361561283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.01907476509949193</v>
+        <v>0.03348699539904781</v>
       </c>
       <c r="C16">
-        <v>0.01469028970013933</v>
+        <v>-0.04529180373071669</v>
       </c>
       <c r="D16">
-        <v>-0.03496683134878177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002250168262719606</v>
+      </c>
+      <c r="E16">
+        <v>0.01837692224191301</v>
+      </c>
+      <c r="F16">
+        <v>0.004262526433361857</v>
+      </c>
+      <c r="G16">
+        <v>-0.08797558416314094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01698601998447902</v>
+        <v>0.01885819107522222</v>
       </c>
       <c r="C19">
-        <v>0.006498884891265894</v>
+        <v>-0.05078448660382553</v>
       </c>
       <c r="D19">
-        <v>-0.0515148949986915</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.02135820577546722</v>
+      </c>
+      <c r="E19">
+        <v>0.09045683397399024</v>
+      </c>
+      <c r="F19">
+        <v>0.00718449898043625</v>
+      </c>
+      <c r="G19">
+        <v>-0.1374661114954595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.003242810839600335</v>
+        <v>0.01451184733000925</v>
       </c>
       <c r="C20">
-        <v>0.0005527229866758517</v>
+        <v>-0.04049247376580236</v>
       </c>
       <c r="D20">
-        <v>-0.03534185853831018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01525157388546469</v>
+      </c>
+      <c r="E20">
+        <v>0.04227085037014366</v>
+      </c>
+      <c r="F20">
+        <v>0.02405474678912424</v>
+      </c>
+      <c r="G20">
+        <v>-0.1120611264699606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.002318519139638201</v>
+        <v>0.008444619433015806</v>
       </c>
       <c r="C21">
-        <v>-0.005241793832396807</v>
+        <v>-0.03726288252684631</v>
       </c>
       <c r="D21">
-        <v>-0.02990270144036219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02061756790276852</v>
+      </c>
+      <c r="E21">
+        <v>0.05424636615282444</v>
+      </c>
+      <c r="F21">
+        <v>0.0121381495819604</v>
+      </c>
+      <c r="G21">
+        <v>-0.1453457764125168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001199651888146151</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006489022399211723</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.002324783477789704</v>
+      </c>
+      <c r="E22">
+        <v>0.01825731263499695</v>
+      </c>
+      <c r="F22">
+        <v>-0.004916723106142443</v>
+      </c>
+      <c r="G22">
+        <v>-0.003514566609063171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001174657463616115</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006395110410178797</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002311785220000335</v>
+      </c>
+      <c r="E23">
+        <v>0.0181950960320963</v>
+      </c>
+      <c r="F23">
+        <v>-0.004664310626758507</v>
+      </c>
+      <c r="G23">
+        <v>-0.003377425277174447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.01316239270407581</v>
+        <v>0.02899952802499808</v>
       </c>
       <c r="C24">
-        <v>0.01080629027729059</v>
+        <v>-0.04924820205711396</v>
       </c>
       <c r="D24">
-        <v>-0.04205957970280637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.00738057901495441</v>
+      </c>
+      <c r="E24">
+        <v>0.01747942343028513</v>
+      </c>
+      <c r="F24">
+        <v>-0.006304049636956727</v>
+      </c>
+      <c r="G24">
+        <v>-0.08803581248144784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.02988336555322128</v>
+        <v>0.04217683266673075</v>
       </c>
       <c r="C25">
-        <v>0.01264660091911927</v>
+        <v>-0.05711867878183793</v>
       </c>
       <c r="D25">
-        <v>-0.05365794399492357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01142860307406301</v>
+      </c>
+      <c r="E25">
+        <v>0.008897604483059882</v>
+      </c>
+      <c r="F25">
+        <v>-0.005153186723873673</v>
+      </c>
+      <c r="G25">
+        <v>-0.09443895200546526</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004290409828482275</v>
+        <v>0.0152081467742435</v>
       </c>
       <c r="C26">
-        <v>-0.01953749421374372</v>
+        <v>-0.01064123636276878</v>
       </c>
       <c r="D26">
-        <v>-0.009433779923488345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02423963560356205</v>
+      </c>
+      <c r="E26">
+        <v>0.01137064550791104</v>
+      </c>
+      <c r="F26">
+        <v>0.00575973085181716</v>
+      </c>
+      <c r="G26">
+        <v>-0.08502611069112331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1556281298241689</v>
+        <v>0.1317295990759398</v>
       </c>
       <c r="C28">
-        <v>-0.03863422854247094</v>
+        <v>0.2428666327889862</v>
       </c>
       <c r="D28">
-        <v>0.1975896865071548</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006630229224370707</v>
+      </c>
+      <c r="E28">
+        <v>0.002923194999126492</v>
+      </c>
+      <c r="F28">
+        <v>0.02049335424744165</v>
+      </c>
+      <c r="G28">
+        <v>-0.04816326501434253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.005901340522936121</v>
+        <v>0.008215125657463388</v>
       </c>
       <c r="C29">
-        <v>-0.0002214364311416529</v>
+        <v>-0.02303317391526455</v>
       </c>
       <c r="D29">
-        <v>-0.01875401593454074</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01000612566348861</v>
+      </c>
+      <c r="E29">
+        <v>0.008443581192380849</v>
+      </c>
+      <c r="F29">
+        <v>0.01131201436812811</v>
+      </c>
+      <c r="G29">
+        <v>-0.104739313238142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02419173558863882</v>
+        <v>0.03864755978895958</v>
       </c>
       <c r="C30">
-        <v>0.008478234911794615</v>
+        <v>-0.0676384523619305</v>
       </c>
       <c r="D30">
-        <v>-0.09008496845955044</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.03047997837291051</v>
+      </c>
+      <c r="E30">
+        <v>0.0713972188519775</v>
+      </c>
+      <c r="F30">
+        <v>-0.01997696232929268</v>
+      </c>
+      <c r="G30">
+        <v>-0.1253699385936025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02884455961657932</v>
+        <v>0.05268881341690162</v>
       </c>
       <c r="C31">
-        <v>0.005915970442517388</v>
+        <v>-0.03883101253686381</v>
       </c>
       <c r="D31">
-        <v>-0.01510249592922476</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003975525243384985</v>
+      </c>
+      <c r="E31">
+        <v>-0.001559711815857513</v>
+      </c>
+      <c r="F31">
+        <v>0.03435221897740017</v>
+      </c>
+      <c r="G31">
+        <v>-0.09973249905596294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.003340731938994412</v>
+        <v>0.001706796075416824</v>
       </c>
       <c r="C32">
-        <v>0.01675424944238274</v>
+        <v>-0.02093408480632214</v>
       </c>
       <c r="D32">
-        <v>-0.02734547949474618</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.001726477194515308</v>
+      </c>
+      <c r="E32">
+        <v>0.04730501902772013</v>
+      </c>
+      <c r="F32">
+        <v>-0.02950834604617985</v>
+      </c>
+      <c r="G32">
+        <v>-0.0746849071511488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01563977647034415</v>
+        <v>0.02656117135703801</v>
       </c>
       <c r="C33">
-        <v>0.007801012866434206</v>
+        <v>-0.0498744038636037</v>
       </c>
       <c r="D33">
-        <v>-0.05147049989037777</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01734638898297661</v>
+      </c>
+      <c r="E33">
+        <v>0.05792797181721793</v>
+      </c>
+      <c r="F33">
+        <v>-0.006160731301623385</v>
+      </c>
+      <c r="G33">
+        <v>-0.158866444432206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.03406061120476436</v>
+        <v>0.04117657650071797</v>
       </c>
       <c r="C34">
-        <v>0.02982357331377933</v>
+        <v>-0.06014207201797</v>
       </c>
       <c r="D34">
-        <v>-0.05048715038055655</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004364198919648471</v>
+      </c>
+      <c r="E34">
+        <v>0.01412486438509023</v>
+      </c>
+      <c r="F34">
+        <v>-0.01879931439736103</v>
+      </c>
+      <c r="G34">
+        <v>-0.08648461629858584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008035846816269173</v>
+        <v>0.01584923576498638</v>
       </c>
       <c r="C36">
-        <v>-0.009578869850268741</v>
+        <v>-0.008002591585046643</v>
       </c>
       <c r="D36">
-        <v>-0.0005786032247236148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0131209488018031</v>
+      </c>
+      <c r="E36">
+        <v>0.01448234737730091</v>
+      </c>
+      <c r="F36">
+        <v>0.007241800182360963</v>
+      </c>
+      <c r="G36">
+        <v>-0.09723057850624495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02290268621456162</v>
+        <v>0.03131078916805091</v>
       </c>
       <c r="C38">
-        <v>0.01794193168701606</v>
+        <v>-0.02826974802326533</v>
       </c>
       <c r="D38">
-        <v>-0.01525122365068044</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.00743336222194681</v>
+      </c>
+      <c r="E38">
+        <v>0.00917510473582934</v>
+      </c>
+      <c r="F38">
+        <v>0.0155014577311392</v>
+      </c>
+      <c r="G38">
+        <v>-0.0884258293142753</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01205391096750202</v>
+        <v>0.03507688131775725</v>
       </c>
       <c r="C39">
-        <v>0.02106062039864674</v>
+        <v>-0.07830842663964531</v>
       </c>
       <c r="D39">
-        <v>-0.08629500900687681</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01245273048374424</v>
+      </c>
+      <c r="E39">
+        <v>0.03328800849437972</v>
+      </c>
+      <c r="F39">
+        <v>-0.01471514406621241</v>
+      </c>
+      <c r="G39">
+        <v>-0.09511827749368987</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01475586297341503</v>
+        <v>0.01359157879380676</v>
       </c>
       <c r="C40">
-        <v>0.0002000508701378733</v>
+        <v>-0.03647681708246684</v>
       </c>
       <c r="D40">
-        <v>-0.02629983596521327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01543306890490858</v>
+      </c>
+      <c r="E40">
+        <v>0.03627046602538551</v>
+      </c>
+      <c r="F40">
+        <v>0.01584414065018287</v>
+      </c>
+      <c r="G40">
+        <v>-0.1217579833813527</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01071645549016721</v>
+        <v>0.02005023743287731</v>
       </c>
       <c r="C41">
-        <v>-0.003622344107208667</v>
+        <v>-0.001652859010621217</v>
       </c>
       <c r="D41">
-        <v>0.006537859601233595</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.005146152740230446</v>
+      </c>
+      <c r="E41">
+        <v>0.01147677981116198</v>
+      </c>
+      <c r="F41">
+        <v>0.0145870163018644</v>
+      </c>
+      <c r="G41">
+        <v>-0.09102826123426087</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.006527783128654353</v>
+        <v>0.004809248585901075</v>
       </c>
       <c r="C42">
-        <v>-0.06644201643527968</v>
+        <v>-0.0279617070587256</v>
       </c>
       <c r="D42">
-        <v>-0.0824614970906542</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08450202549595005</v>
+      </c>
+      <c r="E42">
+        <v>-0.008903875288511647</v>
+      </c>
+      <c r="F42">
+        <v>0.03575990842453561</v>
+      </c>
+      <c r="G42">
+        <v>0.01838298862216354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02271903023645296</v>
+        <v>0.03501956249335762</v>
       </c>
       <c r="C43">
-        <v>0.001828962017200004</v>
+        <v>-0.01710611239683016</v>
       </c>
       <c r="D43">
-        <v>-0.003232806489901115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006472775478204172</v>
+      </c>
+      <c r="E43">
+        <v>0.02702291145723865</v>
+      </c>
+      <c r="F43">
+        <v>0.01097721084827846</v>
+      </c>
+      <c r="G43">
+        <v>-0.1196504589934434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.007606421839971617</v>
+        <v>0.01287017787641703</v>
       </c>
       <c r="C44">
-        <v>0.0151153637281774</v>
+        <v>-0.05635331029788787</v>
       </c>
       <c r="D44">
-        <v>-0.0523675258124288</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007740320154620505</v>
+      </c>
+      <c r="E44">
+        <v>0.03200904143374241</v>
+      </c>
+      <c r="F44">
+        <v>0.01845598365941877</v>
+      </c>
+      <c r="G44">
+        <v>-0.1171390135749897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.002178005863159793</v>
+        <v>0.0085517161819832</v>
       </c>
       <c r="C46">
-        <v>-0.01060357719985266</v>
+        <v>-0.01539023278877233</v>
       </c>
       <c r="D46">
-        <v>-0.00227640066746748</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01294082774416173</v>
+      </c>
+      <c r="E46">
+        <v>0.001295825039583048</v>
+      </c>
+      <c r="F46">
+        <v>0.01387605770342351</v>
+      </c>
+      <c r="G46">
+        <v>-0.1085676289885739</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.04868032220065829</v>
+        <v>0.07928235792640143</v>
       </c>
       <c r="C47">
-        <v>0.02963595091262347</v>
+        <v>-0.07081431539754031</v>
       </c>
       <c r="D47">
-        <v>-0.05277828711800541</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005067797906748437</v>
+      </c>
+      <c r="E47">
+        <v>-0.009254029882936809</v>
+      </c>
+      <c r="F47">
+        <v>0.04492836417342334</v>
+      </c>
+      <c r="G47">
+        <v>-0.08944987304728738</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.006327345762888689</v>
+        <v>0.01893933519235929</v>
       </c>
       <c r="C48">
-        <v>0.0001211230920933132</v>
+        <v>-0.0124562996072868</v>
       </c>
       <c r="D48">
-        <v>0.0004487015459539227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002711548137198908</v>
+      </c>
+      <c r="E48">
+        <v>0.00807341798871726</v>
+      </c>
+      <c r="F48">
+        <v>0.01888512427000496</v>
+      </c>
+      <c r="G48">
+        <v>-0.1042975453936515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05240743370255799</v>
+        <v>0.07399726143960908</v>
       </c>
       <c r="C50">
-        <v>0.02642465934475702</v>
+        <v>-0.07189428965314575</v>
       </c>
       <c r="D50">
-        <v>-0.04464826466455539</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.00215758793178676</v>
+      </c>
+      <c r="E50">
+        <v>-0.00935247087841498</v>
+      </c>
+      <c r="F50">
+        <v>0.04681314092558097</v>
+      </c>
+      <c r="G50">
+        <v>-0.09992900302650985</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.005989576990464789</v>
+        <v>0.01171414611198105</v>
       </c>
       <c r="C51">
-        <v>0.004296677633079352</v>
+        <v>-0.0359885438784828</v>
       </c>
       <c r="D51">
-        <v>-0.03138010189456161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01159581065743024</v>
+      </c>
+      <c r="E51">
+        <v>0.03438278911399807</v>
+      </c>
+      <c r="F51">
+        <v>-0.01066392298847672</v>
+      </c>
+      <c r="G51">
+        <v>-0.1201320315105512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07018945052182284</v>
+        <v>0.08113488187258937</v>
       </c>
       <c r="C53">
-        <v>0.03891008192670053</v>
+        <v>-0.08407584951670977</v>
       </c>
       <c r="D53">
-        <v>-0.07231086794351693</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004169517204606976</v>
+      </c>
+      <c r="E53">
+        <v>-0.03300907119486907</v>
+      </c>
+      <c r="F53">
+        <v>0.05161601103474803</v>
+      </c>
+      <c r="G53">
+        <v>-0.09042905688427987</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02192959028381781</v>
+        <v>0.03235535288945909</v>
       </c>
       <c r="C54">
-        <v>0.004821500885464581</v>
+        <v>-0.01751481445592897</v>
       </c>
       <c r="D54">
-        <v>0.006820114391051163</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0005520923153239271</v>
+      </c>
+      <c r="E54">
+        <v>0.02062822111825101</v>
+      </c>
+      <c r="F54">
+        <v>0.01083245415035434</v>
+      </c>
+      <c r="G54">
+        <v>-0.1080442067696669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.05057801896654049</v>
+        <v>0.07345203287427329</v>
       </c>
       <c r="C55">
-        <v>0.03089774592076393</v>
+        <v>-0.06776498700919045</v>
       </c>
       <c r="D55">
-        <v>-0.05662988903747865</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005594950626365181</v>
+      </c>
+      <c r="E55">
+        <v>-0.03026536892165612</v>
+      </c>
+      <c r="F55">
+        <v>0.04924715598279016</v>
+      </c>
+      <c r="G55">
+        <v>-0.06995158925241481</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1098383171366122</v>
+        <v>0.1352852104621673</v>
       </c>
       <c r="C56">
-        <v>0.06259111202310007</v>
+        <v>-0.1075355423671235</v>
       </c>
       <c r="D56">
-        <v>-0.1018620739174412</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01329726081875359</v>
+      </c>
+      <c r="E56">
+        <v>-0.03988992622871019</v>
+      </c>
+      <c r="F56">
+        <v>0.06232862968142004</v>
+      </c>
+      <c r="G56">
+        <v>-0.050417960831076</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01071161723519891</v>
+        <v>0.004021056814988925</v>
       </c>
       <c r="C57">
-        <v>-0.01507443710172396</v>
+        <v>-0.004772211982210058</v>
       </c>
       <c r="D57">
-        <v>-0.01883138501504791</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02280188361471275</v>
+      </c>
+      <c r="E57">
+        <v>0.02461027684876475</v>
+      </c>
+      <c r="F57">
+        <v>-0.0004777787005713663</v>
+      </c>
+      <c r="G57">
+        <v>-0.01591588872639627</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.03664284958738362</v>
+        <v>0.04135928112304661</v>
       </c>
       <c r="C58">
-        <v>0.04197423368803529</v>
+        <v>-0.04213795376978456</v>
       </c>
       <c r="D58">
-        <v>-0.1014638801632416</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03135795624260813</v>
+      </c>
+      <c r="E58">
+        <v>0.7957639481679347</v>
+      </c>
+      <c r="F58">
+        <v>0.5084691930999682</v>
+      </c>
+      <c r="G58">
+        <v>0.2568842961722834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.195583266850629</v>
+        <v>0.1607951439485845</v>
       </c>
       <c r="C59">
-        <v>-0.02344668033245561</v>
+        <v>0.2056629857679264</v>
       </c>
       <c r="D59">
-        <v>0.1927774916679063</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01062150321619776</v>
+      </c>
+      <c r="E59">
+        <v>0.02428680033921084</v>
+      </c>
+      <c r="F59">
+        <v>0.005157696790608153</v>
+      </c>
+      <c r="G59">
+        <v>-0.03541203656574349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3039973933216166</v>
+        <v>0.2872657876593254</v>
       </c>
       <c r="C60">
-        <v>0.09013538096045993</v>
+        <v>-0.1156424115187558</v>
       </c>
       <c r="D60">
-        <v>-0.1497345941213111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01505138049169942</v>
+      </c>
+      <c r="E60">
+        <v>0.09227393451266447</v>
+      </c>
+      <c r="F60">
+        <v>-0.3154669833946799</v>
+      </c>
+      <c r="G60">
+        <v>0.1759828190247572</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.01724809296085935</v>
+        <v>0.03869612145637864</v>
       </c>
       <c r="C61">
-        <v>0.02179656903909093</v>
+        <v>-0.06549068840081392</v>
       </c>
       <c r="D61">
-        <v>-0.06604089396594437</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006451784966562875</v>
+      </c>
+      <c r="E61">
+        <v>0.03163542020574918</v>
+      </c>
+      <c r="F61">
+        <v>-0.009664302998925003</v>
+      </c>
+      <c r="G61">
+        <v>-0.09467992315338523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.006491595832536526</v>
+        <v>0.01449642768704934</v>
       </c>
       <c r="C63">
-        <v>0.003045341189214582</v>
+        <v>-0.02953639890857824</v>
       </c>
       <c r="D63">
-        <v>-0.02946815525785134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008837021486442088</v>
+      </c>
+      <c r="E63">
+        <v>0.00708357544335031</v>
+      </c>
+      <c r="F63">
+        <v>0.0141128803519777</v>
+      </c>
+      <c r="G63">
+        <v>-0.09365817308830321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.03786622578312023</v>
+        <v>0.04953798039886786</v>
       </c>
       <c r="C64">
-        <v>0.01337893557750269</v>
+        <v>-0.04681632819490449</v>
       </c>
       <c r="D64">
-        <v>-0.03493644076962344</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005965876737466526</v>
+      </c>
+      <c r="E64">
+        <v>0.006193365831042488</v>
+      </c>
+      <c r="F64">
+        <v>-0.007567468364695633</v>
+      </c>
+      <c r="G64">
+        <v>-0.0971526799168515</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.06854283914127292</v>
+        <v>0.07243411832715106</v>
       </c>
       <c r="C65">
-        <v>0.02537123346077747</v>
+        <v>-0.06015187957032671</v>
       </c>
       <c r="D65">
-        <v>-0.08807381132381224</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01786125534313511</v>
+      </c>
+      <c r="E65">
+        <v>0.05061200186565189</v>
+      </c>
+      <c r="F65">
+        <v>-0.0113447505485136</v>
+      </c>
+      <c r="G65">
+        <v>-0.04187956494847222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.02558596833452851</v>
+        <v>0.04726187031275313</v>
       </c>
       <c r="C66">
-        <v>0.03893549581760266</v>
+        <v>-0.1064566636080833</v>
       </c>
       <c r="D66">
-        <v>-0.1309481235341858</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01309118422853426</v>
+      </c>
+      <c r="E66">
+        <v>0.05361510032210154</v>
+      </c>
+      <c r="F66">
+        <v>-0.02443026835863708</v>
+      </c>
+      <c r="G66">
+        <v>-0.1007204880189475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04856819762326557</v>
+        <v>0.05494906245681166</v>
       </c>
       <c r="C67">
-        <v>0.02350581894160817</v>
+        <v>-0.03385629826458135</v>
       </c>
       <c r="D67">
-        <v>-0.02766517412088275</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006156257390769656</v>
+      </c>
+      <c r="E67">
+        <v>-0.002348310970011596</v>
+      </c>
+      <c r="F67">
+        <v>0.01066277894450662</v>
+      </c>
+      <c r="G67">
+        <v>-0.07493456357973347</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1863422284686392</v>
+        <v>0.1606153775517603</v>
       </c>
       <c r="C68">
-        <v>-0.05763349411537075</v>
+        <v>0.2693740692910862</v>
       </c>
       <c r="D68">
-        <v>0.2290596594493136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005258445177135631</v>
+      </c>
+      <c r="E68">
+        <v>-0.001006571949635739</v>
+      </c>
+      <c r="F68">
+        <v>0.04477558930308038</v>
+      </c>
+      <c r="G68">
+        <v>-0.02083349126425877</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.05477466209893521</v>
+        <v>0.08200922355920831</v>
       </c>
       <c r="C69">
-        <v>0.03351448750135193</v>
+        <v>-0.07370632776728514</v>
       </c>
       <c r="D69">
-        <v>-0.04869027391759599</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009113252740582656</v>
+      </c>
+      <c r="E69">
+        <v>-0.02202484884665825</v>
+      </c>
+      <c r="F69">
+        <v>0.02572662108470507</v>
+      </c>
+      <c r="G69">
+        <v>-0.1000743220505444</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1707118406434756</v>
+        <v>0.1468537175975424</v>
       </c>
       <c r="C71">
-        <v>-0.03695748145519369</v>
+        <v>0.2293071234980734</v>
       </c>
       <c r="D71">
-        <v>0.1911734281515502</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002738811689273189</v>
+      </c>
+      <c r="E71">
+        <v>0.03079669471782874</v>
+      </c>
+      <c r="F71">
+        <v>0.02746219341197459</v>
+      </c>
+      <c r="G71">
+        <v>-0.06600484724741069</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.06304685389322176</v>
+        <v>0.08635334836428095</v>
       </c>
       <c r="C72">
-        <v>0.04322132901495</v>
+        <v>-0.06906394111177692</v>
       </c>
       <c r="D72">
-        <v>-0.06902933968712087</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.00789941567410412</v>
+      </c>
+      <c r="E72">
+        <v>-0.001046189103103766</v>
+      </c>
+      <c r="F72">
+        <v>-0.03330681431442934</v>
+      </c>
+      <c r="G72">
+        <v>-0.08275724277713868</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4177789326372092</v>
+        <v>0.3701082870408468</v>
       </c>
       <c r="C73">
-        <v>0.1319608622311435</v>
+        <v>-0.125082094978575</v>
       </c>
       <c r="D73">
-        <v>-0.2320615438846554</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02791485558684536</v>
+      </c>
+      <c r="E73">
+        <v>0.2274407462195019</v>
+      </c>
+      <c r="F73">
+        <v>-0.5394554933703561</v>
+      </c>
+      <c r="G73">
+        <v>0.3246694586971912</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08874931978343796</v>
+        <v>0.1044307872700203</v>
       </c>
       <c r="C74">
-        <v>0.06137740868005841</v>
+        <v>-0.1093856128366985</v>
       </c>
       <c r="D74">
-        <v>-0.1137304870291083</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009635355648058015</v>
+      </c>
+      <c r="E74">
+        <v>-0.01407604755786403</v>
+      </c>
+      <c r="F74">
+        <v>0.05614962786718523</v>
+      </c>
+      <c r="G74">
+        <v>-0.07487454142627667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2038487431080681</v>
+        <v>0.2458388628708306</v>
       </c>
       <c r="C75">
-        <v>0.1074606073653705</v>
+        <v>-0.1528215966101087</v>
       </c>
       <c r="D75">
-        <v>-0.1600984380965486</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03267332363582138</v>
+      </c>
+      <c r="E75">
+        <v>-0.101695092950556</v>
+      </c>
+      <c r="F75">
+        <v>0.1399595247261023</v>
+      </c>
+      <c r="G75">
+        <v>-0.003458734106227058</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1024022096929438</v>
+        <v>0.1145619132323916</v>
       </c>
       <c r="C76">
-        <v>0.07142315778104018</v>
+        <v>-0.1107951953623822</v>
       </c>
       <c r="D76">
-        <v>-0.1141720572146424</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01835583444185037</v>
+      </c>
+      <c r="E76">
+        <v>-0.04341130185732749</v>
+      </c>
+      <c r="F76">
+        <v>0.08462228435788874</v>
+      </c>
+      <c r="G76">
+        <v>-0.06178885040019812</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.04050958120227767</v>
+        <v>0.07033256839225929</v>
       </c>
       <c r="C77">
-        <v>0.02108465499570222</v>
+        <v>-0.05716014349722902</v>
       </c>
       <c r="D77">
-        <v>-0.06758952506838145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01092001947298658</v>
+      </c>
+      <c r="E77">
+        <v>0.05577110039208457</v>
+      </c>
+      <c r="F77">
+        <v>0.00277418305819411</v>
+      </c>
+      <c r="G77">
+        <v>-0.07260486183214523</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.03059230142993174</v>
+        <v>0.04008830959303846</v>
       </c>
       <c r="C78">
-        <v>0.02068481694084337</v>
+        <v>-0.05531615753805867</v>
       </c>
       <c r="D78">
-        <v>-0.0579785526127463</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.00783203132562493</v>
+      </c>
+      <c r="E78">
+        <v>0.04355719943283248</v>
+      </c>
+      <c r="F78">
+        <v>-0.0277817422173718</v>
+      </c>
+      <c r="G78">
+        <v>-0.09762721915695599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001958005317122041</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0006686894827001288</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0007778124152412485</v>
+      </c>
+      <c r="E79">
+        <v>0.007458770477719655</v>
+      </c>
+      <c r="F79">
+        <v>2.965009523528311e-05</v>
+      </c>
+      <c r="G79">
+        <v>-0.006614391055527732</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03765573473421025</v>
+        <v>0.04105443766413084</v>
       </c>
       <c r="C80">
-        <v>0.01737246908940945</v>
+        <v>-0.05317547704370203</v>
       </c>
       <c r="D80">
-        <v>-0.06856673891241273</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01413914342762196</v>
+      </c>
+      <c r="E80">
+        <v>0.03318372918924057</v>
+      </c>
+      <c r="F80">
+        <v>0.0005554827927767677</v>
+      </c>
+      <c r="G80">
+        <v>-0.05464727034219095</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1087627235625495</v>
+        <v>0.1378285532233821</v>
       </c>
       <c r="C81">
-        <v>0.05586950034575219</v>
+        <v>-0.09643276094101086</v>
       </c>
       <c r="D81">
-        <v>-0.08143410269443462</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01592165185892043</v>
+      </c>
+      <c r="E81">
+        <v>-0.06172350611259086</v>
+      </c>
+      <c r="F81">
+        <v>0.1107345427000394</v>
+      </c>
+      <c r="G81">
+        <v>-0.02919786516767251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.02824199538774487</v>
+        <v>0.1492229482546316</v>
       </c>
       <c r="C82">
-        <v>0.01268394031081485</v>
+        <v>-0.0923526380732191</v>
       </c>
       <c r="D82">
-        <v>-0.02083228551622244</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01426949598469528</v>
+      </c>
+      <c r="E82">
+        <v>-0.1363848588841568</v>
+      </c>
+      <c r="F82">
+        <v>0.04357831875677328</v>
+      </c>
+      <c r="G82">
+        <v>-0.05126304688690519</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01930138661460437</v>
+        <v>0.03314650091711634</v>
       </c>
       <c r="C83">
-        <v>0.006148253945487356</v>
+        <v>-0.03261433648339092</v>
       </c>
       <c r="D83">
-        <v>-0.02154327814715526</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.007180195483638272</v>
+      </c>
+      <c r="E83">
+        <v>0.03664234588022265</v>
+      </c>
+      <c r="F83">
+        <v>-0.03083329460061822</v>
+      </c>
+      <c r="G83">
+        <v>-0.0548644548814216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1977680164048773</v>
+        <v>0.2075622472600033</v>
       </c>
       <c r="C85">
-        <v>0.09944974809088396</v>
+        <v>-0.1463722680391052</v>
       </c>
       <c r="D85">
-        <v>-0.175979339558566</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01804502319981867</v>
+      </c>
+      <c r="E85">
+        <v>-0.1136402558708411</v>
+      </c>
+      <c r="F85">
+        <v>0.07584269037511014</v>
+      </c>
+      <c r="G85">
+        <v>0.03422549908688189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006217392078145874</v>
+        <v>0.01241697210357628</v>
       </c>
       <c r="C86">
-        <v>0.003217993851928461</v>
+        <v>-0.02748428394030758</v>
       </c>
       <c r="D86">
-        <v>-0.02584316952458349</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01313492961227663</v>
+      </c>
+      <c r="E86">
+        <v>0.06723991807861139</v>
+      </c>
+      <c r="F86">
+        <v>-0.02274391937518977</v>
+      </c>
+      <c r="G86">
+        <v>-0.1793529482389911</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0002732865595162571</v>
+        <v>0.02083629975381406</v>
       </c>
       <c r="C87">
-        <v>0.002248474172882848</v>
+        <v>-0.01829292279065831</v>
       </c>
       <c r="D87">
-        <v>-0.03299381170341392</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01334380990053252</v>
+      </c>
+      <c r="E87">
+        <v>0.0998038994245333</v>
+      </c>
+      <c r="F87">
+        <v>0.01966600120136741</v>
+      </c>
+      <c r="G87">
+        <v>-0.1151908013095954</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06638582391844647</v>
+        <v>0.09027568199788681</v>
       </c>
       <c r="C88">
-        <v>0.006218925299733207</v>
+        <v>-0.07085730498790105</v>
       </c>
       <c r="D88">
-        <v>-0.05676837958157481</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02242288701360555</v>
+      </c>
+      <c r="E88">
+        <v>-0.001756279940147243</v>
+      </c>
+      <c r="F88">
+        <v>0.01889057497648254</v>
+      </c>
+      <c r="G88">
+        <v>-0.1032545558858626</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.2836369220888105</v>
+        <v>0.2356493345841342</v>
       </c>
       <c r="C89">
-        <v>-0.07041349951433322</v>
+        <v>0.3637658839143359</v>
       </c>
       <c r="D89">
-        <v>0.324059265058293</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0008195792508294545</v>
+      </c>
+      <c r="E89">
+        <v>-0.0223483334949372</v>
+      </c>
+      <c r="F89">
+        <v>0.01926707944412132</v>
+      </c>
+      <c r="G89">
+        <v>-0.07751775302730009</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2493255837102734</v>
+        <v>0.2140740463643635</v>
       </c>
       <c r="C90">
-        <v>-0.06032925824118929</v>
+        <v>0.3141517982039933</v>
       </c>
       <c r="D90">
-        <v>0.2935356953699446</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004398167518569902</v>
+      </c>
+      <c r="E90">
+        <v>-0.009056519229523731</v>
+      </c>
+      <c r="F90">
+        <v>0.0502532676708927</v>
+      </c>
+      <c r="G90">
+        <v>-0.04951366209390478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1580657185619282</v>
+        <v>0.1843557909520427</v>
       </c>
       <c r="C91">
-        <v>0.07841366402124818</v>
+        <v>-0.1374611360968207</v>
       </c>
       <c r="D91">
-        <v>-0.1025491284325054</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02345216101625019</v>
+      </c>
+      <c r="E91">
+        <v>-0.08334714524273114</v>
+      </c>
+      <c r="F91">
+        <v>0.1097922241474963</v>
+      </c>
+      <c r="G91">
+        <v>-0.03860332863942536</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2284724468048597</v>
+        <v>0.2005497711882792</v>
       </c>
       <c r="C92">
-        <v>-0.007173666489938183</v>
+        <v>0.2559119751297756</v>
       </c>
       <c r="D92">
-        <v>0.2327260511415952</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03806479809272174</v>
+      </c>
+      <c r="E92">
+        <v>0.02170349615838431</v>
+      </c>
+      <c r="F92">
+        <v>0.05631949386003093</v>
+      </c>
+      <c r="G92">
+        <v>-0.08974162955184337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.264213055831331</v>
+        <v>0.2366810614436153</v>
       </c>
       <c r="C93">
-        <v>-0.04379607930790458</v>
+        <v>0.307234773092081</v>
       </c>
       <c r="D93">
-        <v>0.2705430917272154</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01037008317811697</v>
+      </c>
+      <c r="E93">
+        <v>0.005809618436654011</v>
+      </c>
+      <c r="F93">
+        <v>0.03799680635245866</v>
+      </c>
+      <c r="G93">
+        <v>-0.06108752678061712</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2152273135139533</v>
+        <v>0.3201891155227299</v>
       </c>
       <c r="C94">
-        <v>0.08651043576155966</v>
+        <v>-0.1979219726684663</v>
       </c>
       <c r="D94">
-        <v>-0.1581720291668956</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02634604112074131</v>
+      </c>
+      <c r="E94">
+        <v>-0.3537693667213196</v>
+      </c>
+      <c r="F94">
+        <v>0.4257802818343717</v>
+      </c>
+      <c r="G94">
+        <v>0.3873024191116035</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.05572632901160542</v>
+        <v>0.09224139916420909</v>
       </c>
       <c r="C95">
-        <v>0.0614150293153941</v>
+        <v>-0.08118217947090202</v>
       </c>
       <c r="D95">
-        <v>-0.1345328940237613</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009038166333969257</v>
+      </c>
+      <c r="E95">
+        <v>0.1101468216204996</v>
+      </c>
+      <c r="F95">
+        <v>-0.1574548976085665</v>
+      </c>
+      <c r="G95">
+        <v>-0.06123480464956461</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2008971910814223</v>
+        <v>0.1899795204334086</v>
       </c>
       <c r="C98">
-        <v>0.07821550995425178</v>
+        <v>-0.05137800496056016</v>
       </c>
       <c r="D98">
-        <v>-0.079011475050248</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0100832988684658</v>
+      </c>
+      <c r="E98">
+        <v>0.128886440078399</v>
+      </c>
+      <c r="F98">
+        <v>-0.2077369866258697</v>
+      </c>
+      <c r="G98">
+        <v>0.04729103954073508</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.005597929521727552</v>
+        <v>0.008058608322526639</v>
       </c>
       <c r="C101">
-        <v>-5.63086601571969e-05</v>
+        <v>-0.0229033223220962</v>
       </c>
       <c r="D101">
-        <v>-0.01895322103822554</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009825629117969721</v>
+      </c>
+      <c r="E101">
+        <v>0.00799821337678064</v>
+      </c>
+      <c r="F101">
+        <v>0.0121989980133111</v>
+      </c>
+      <c r="G101">
+        <v>-0.1043776566644514</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.09936470214559928</v>
+        <v>0.1171249634443287</v>
       </c>
       <c r="C102">
-        <v>0.0395688374623997</v>
+        <v>-0.08480179338294283</v>
       </c>
       <c r="D102">
-        <v>-0.08384897178252175</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0001478932308396973</v>
+      </c>
+      <c r="E102">
+        <v>-0.03989188555525339</v>
+      </c>
+      <c r="F102">
+        <v>0.01983570890079562</v>
+      </c>
+      <c r="G102">
+        <v>-0.02452462168933223</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.1625364240469137</v>
+        <v>0.02121462656510794</v>
       </c>
       <c r="C104">
-        <v>-0.9327895551298954</v>
+        <v>0.02832089524476831</v>
       </c>
       <c r="D104">
-        <v>-0.2933875774810935</v>
+        <v>0.9869213156380234</v>
+      </c>
+      <c r="E104">
+        <v>-0.07470824829702707</v>
+      </c>
+      <c r="F104">
+        <v>0.02516246385625187</v>
+      </c>
+      <c r="G104">
+        <v>0.03825264191178355</v>
       </c>
     </row>
   </sheetData>
